--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1146.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1146.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.685581345305262</v>
+        <v>1.159980058670044</v>
       </c>
       <c r="B1">
-        <v>2.508568815186035</v>
+        <v>2.407708168029785</v>
       </c>
       <c r="C1">
-        <v>2.769663189853883</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.420400642563762</v>
+        <v>2.383955478668213</v>
       </c>
       <c r="E1">
-        <v>1.560431618743431</v>
+        <v>1.228777170181274</v>
       </c>
     </row>
   </sheetData>
